--- a/public/data/lime/lime_table_burkina_faso.xlsx
+++ b/public/data/lime/lime_table_burkina_faso.xlsx
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.51</v>
+        <v>0.18</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.94</v>
+        <v>0.51</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.63</v>
+        <v>0.2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.72</v>
+        <v>0.17</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1795,16 +1795,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.77</v>
+        <v>0.25</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.58</v>
+        <v>0.13</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.69</v>
+        <v>0.17</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.57</v>
+        <v>0.18</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.23</v>
+        <v>0.36</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2688,16 +2688,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.93</v>
+        <v>0.52</v>
       </c>
       <c r="K30" t="n">
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.86</v>
+        <v>0.29</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3205,16 +3205,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.88</v>
+        <v>0.28</v>
       </c>
       <c r="K41" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.86</v>
+        <v>0.23</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -3440,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.64</v>
+        <v>0.22</v>
       </c>
       <c r="K46" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
